--- a/Excel_to_Gurobi_for_Network_Models.xlsx
+++ b/Excel_to_Gurobi_for_Network_Models.xlsx
@@ -5,24 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrywu/MyDrive/99_Coding/01-Github/Gurobi-Network-Model-Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrywu/MyDrive/99_Coding/01-Github/Gurobi-Tool-Network-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A996CFFA-DD04-2947-AE8C-2825821C51F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C6D2C-8D7B-C645-B7E9-6B4239AD4243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{A4184C43-EF10-AC4D-929C-535692D4A953}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="1" xr2:uid="{A4184C43-EF10-AC4D-929C-535692D4A953}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="24" r:id="rId1"/>
-    <sheet name="Main" sheetId="20" r:id="rId2"/>
-    <sheet name="Readme" sheetId="18" r:id="rId3"/>
-    <sheet name="Transportation Problem" sheetId="10" r:id="rId4"/>
-    <sheet name="Transshipment Problem" sheetId="11" r:id="rId5"/>
-    <sheet name="Assignment Problem" sheetId="1" r:id="rId6"/>
-    <sheet name="Shortest Path Problem" sheetId="8" r:id="rId7"/>
-    <sheet name="Maximum Flow Problem" sheetId="21" r:id="rId8"/>
-    <sheet name="Traveling Salesperson Problem" sheetId="23" r:id="rId9"/>
-    <sheet name="Explanations" sheetId="9" r:id="rId10"/>
+    <sheet name="Main" sheetId="20" r:id="rId1"/>
+    <sheet name="Readme" sheetId="18" r:id="rId2"/>
+    <sheet name="Transportation Problem" sheetId="10" r:id="rId3"/>
+    <sheet name="Transshipment Problem" sheetId="11" r:id="rId4"/>
+    <sheet name="Assignment Problem" sheetId="1" r:id="rId5"/>
+    <sheet name="Shortest Path Problem" sheetId="8" r:id="rId6"/>
+    <sheet name="Maximum Flow Problem" sheetId="21" r:id="rId7"/>
+    <sheet name="Traveling Salesperson Problem" sheetId="23" r:id="rId8"/>
+    <sheet name="Explanations" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="80">
   <si>
     <t>non-neg?</t>
   </si>
@@ -440,9 +439,6 @@
 Assign a cost of zero to all arcs. For the imaginary arcs leading from the end node back to the start node, set their cost at -1.
 By doing this, the minimal solution will inherently represent the maximum flow.</t>
     </r>
-  </si>
-  <si>
-    <t>F</t>
   </si>
 </sst>
 </file>
@@ -612,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,9 +652,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -673,12 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2019,638 +2006,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2A927F-3180-B74C-BA1C-91249673A93A}">
-  <dimension ref="A1:L23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" style="7" customWidth="1"/>
-    <col min="2" max="7" width="12.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="68.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4">
-        <v>22</v>
-      </c>
-      <c r="F8" s="22">
-        <v>13</v>
-      </c>
-      <c r="G8" s="22">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="22">
-        <v>25</v>
-      </c>
-      <c r="G9" s="22">
-        <v>6</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>21</v>
-      </c>
-      <c r="F10" s="22">
-        <v>23</v>
-      </c>
-      <c r="G10" s="22">
-        <v>28</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="22">
-        <v>4</v>
-      </c>
-      <c r="G11" s="22">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="22">
-        <v>13</v>
-      </c>
-      <c r="C12" s="22">
-        <v>25</v>
-      </c>
-      <c r="D12" s="22">
-        <v>23</v>
-      </c>
-      <c r="E12" s="22">
-        <v>4</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22">
-        <v>16</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="22">
-        <v>1</v>
-      </c>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="22">
-        <v>24</v>
-      </c>
-      <c r="C13" s="22">
-        <v>6</v>
-      </c>
-      <c r="D13" s="22">
-        <v>28</v>
-      </c>
-      <c r="E13" s="22">
-        <v>5</v>
-      </c>
-      <c r="F13" s="22">
-        <v>16</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:10" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L7:L11"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{FA20EBD5-28E6-184A-BC35-182C2FCD437B}">
-      <formula1>"MCNF, MFP, TSP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G3" xr:uid="{40D7F20F-27F4-0E47-ACC9-895148E4A264}">
-      <formula1>"Y, N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:G1" xr:uid="{2870C1A4-5137-5E46-8E38-C5A8D02DA7F8}">
-      <formula1>"min, max"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EC93E3-7DD7-2944-8B4F-C872C1C5BBB0}">
-  <dimension ref="A1:I1048575"/>
-  <sheetViews>
-    <sheetView zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="1048575" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1048575" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B7:I7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBEE589-D9A8-5044-A699-D01502D6FCDE}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -2841,11 +2196,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5820278-BDAC-EE4C-8BC9-C9BF73BE6012}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3017,7 +2374,7 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>63</v>
       </c>
       <c r="L7" s="12"/>
@@ -3052,7 +2409,7 @@
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -3085,7 +2442,7 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -3116,7 +2473,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -3147,7 +2504,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -3171,7 +2528,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -3201,7 +2558,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -3343,7 +2700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7A84E2-4AEA-4640-84AF-F001A52E2677}">
   <dimension ref="A1:W20"/>
   <sheetViews>
@@ -3412,7 +2769,7 @@
       <c r="G7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="12"/>
@@ -3449,7 +2806,7 @@
       <c r="G8" s="4">
         <v>100</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -3470,7 +2827,7 @@
       <c r="G9" s="4">
         <v>300</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -3491,10 +2848,10 @@
       <c r="G10" s="4">
         <v>300</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I11" s="15"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:23" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -3509,10 +2866,10 @@
       <c r="D12" s="4">
         <v>200</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="15"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3540,7 +2897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB346FE-FA80-3640-A7B9-C9C0FFC4C28E}">
   <dimension ref="A1:X19"/>
   <sheetViews>
@@ -3714,7 +3071,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="12"/>
@@ -3751,7 +3108,7 @@
         <v>200</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -3786,7 +3143,7 @@
         <v>150</v>
       </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -3818,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -3850,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -3875,7 +3232,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -3906,7 +3263,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -4049,7 +3406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C3E3A2-A042-1940-9AFF-F576D987188C}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
@@ -4229,7 +3586,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>64</v>
       </c>
       <c r="K7" s="9"/>
@@ -4271,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -4311,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -4351,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -4391,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -4410,7 +3767,7 @@
     </row>
     <row r="12" spans="1:25" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I12" s="9"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -4445,7 +3802,7 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -4634,7 +3991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F902FC52-D80A-ED4E-AB94-C0ACC7AA5305}">
   <dimension ref="A1:X21"/>
   <sheetViews>
@@ -4803,7 +4160,7 @@
         <v>45</v>
       </c>
       <c r="K7" s="9"/>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="9"/>
@@ -4843,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -4877,7 +4234,7 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="15"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -4911,7 +4268,7 @@
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -4945,7 +4302,7 @@
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -4977,7 +4334,7 @@
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -5011,7 +4368,7 @@
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -5185,7 +4542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5C9A4-F7BF-3E41-809C-A3FD2E3B1EC3}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -5271,7 +4628,7 @@
       <c r="K7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5295,7 +4652,7 @@
       <c r="J8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="15"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -5315,7 +4672,7 @@
       <c r="J9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -5335,7 +4692,7 @@
       <c r="J10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -5355,7 +4712,7 @@
       <c r="J11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -5373,7 +4730,7 @@
       <c r="J12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="15"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -5393,7 +4750,7 @@
       <c r="J13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="15"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -5411,24 +4768,24 @@
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="15"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="F15" s="1"/>
-      <c r="M15" s="15"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="15"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M17" s="15"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M18" s="15"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="2:13" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -5522,7 +4879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A5950E-0BA2-5845-B2BF-ABD0F18D3D84}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -5605,7 +4962,7 @@
       <c r="I7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5632,7 +4989,7 @@
       <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -5657,7 +5014,7 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -5682,7 +5039,7 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -5707,7 +5064,7 @@
       <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -5732,7 +5089,7 @@
       <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -5836,4 +5193,271 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EC93E3-7DD7-2944-8B4F-C872C1C5BBB0}">
+  <dimension ref="A1:I1048575"/>
+  <sheetViews>
+    <sheetView zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="1048575" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1048575" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>